--- a/analises/Frequenciasiguais.xlsx
+++ b/analises/Frequenciasiguais.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43a15eb3506ecba9/Área de Trabalho/Repositorios/scripts/analise Bolas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3C0580013592E11592BB8B47B4BF985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C85B557D-6076-438A-9BD4-282D670906D0}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,86 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,355 +420,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B41">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>